--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H2">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>265.1103844926818</v>
+        <v>2165.433729835716</v>
       </c>
       <c r="R2">
-        <v>265.1103844926818</v>
+        <v>19488.90356852144</v>
       </c>
       <c r="S2">
-        <v>0.02976167850759229</v>
+        <v>0.1131587435823258</v>
       </c>
       <c r="T2">
-        <v>0.02976167850759229</v>
+        <v>0.1131587435823258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H3">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>851.5249312238053</v>
+        <v>5319.508363456156</v>
       </c>
       <c r="R3">
-        <v>851.5249312238053</v>
+        <v>47875.57527110541</v>
       </c>
       <c r="S3">
-        <v>0.09559343098829877</v>
+        <v>0.2779807456541468</v>
       </c>
       <c r="T3">
-        <v>0.09559343098829877</v>
+        <v>0.2779807456541468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H4">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I4">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J4">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>408.6473552488032</v>
+        <v>2727.185127809841</v>
       </c>
       <c r="R4">
-        <v>408.6473552488032</v>
+        <v>24544.66615028857</v>
       </c>
       <c r="S4">
-        <v>0.0458753482371735</v>
+        <v>0.1425141015988418</v>
       </c>
       <c r="T4">
-        <v>0.0458753482371735</v>
+        <v>0.1425141015988418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>832.4937579140216</v>
+        <v>1097.88820717764</v>
       </c>
       <c r="R5">
-        <v>832.4937579140216</v>
+        <v>9880.993864598759</v>
       </c>
       <c r="S5">
-        <v>0.09345696370976525</v>
+        <v>0.05737217833376007</v>
       </c>
       <c r="T5">
-        <v>0.09345696370976525</v>
+        <v>0.05737217833376008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J6">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>2673.939730080822</v>
+        <v>2697.023427571907</v>
       </c>
       <c r="R6">
-        <v>2673.939730080822</v>
+        <v>24273.21084814716</v>
       </c>
       <c r="S6">
-        <v>0.3001803748564226</v>
+        <v>0.1409379461819359</v>
       </c>
       <c r="T6">
-        <v>0.3001803748564226</v>
+        <v>0.1409379461819359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J7">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N7">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q7">
-        <v>1283.225374531088</v>
+        <v>1382.69961779889</v>
       </c>
       <c r="R7">
-        <v>1283.225374531088</v>
+        <v>12444.29656019001</v>
       </c>
       <c r="S7">
-        <v>0.1440567525208851</v>
+        <v>0.07225552523085289</v>
       </c>
       <c r="T7">
-        <v>0.1440567525208851</v>
+        <v>0.07225552523085289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H8">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I8">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J8">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N8">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q8">
-        <v>450.6623751422305</v>
+        <v>794.42969630034</v>
       </c>
       <c r="R8">
-        <v>450.6623751422305</v>
+        <v>7149.86726670306</v>
       </c>
       <c r="S8">
-        <v>0.05059201566214491</v>
+        <v>0.04151439273306936</v>
       </c>
       <c r="T8">
-        <v>0.05059201566214491</v>
+        <v>0.04151439273306936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H9">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I9">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J9">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N9">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q9">
-        <v>1447.511189471108</v>
+        <v>1951.560722187607</v>
       </c>
       <c r="R9">
-        <v>1447.511189471108</v>
+        <v>17564.04649968846</v>
       </c>
       <c r="S9">
-        <v>0.1624997177670754</v>
+        <v>0.1019824141023794</v>
       </c>
       <c r="T9">
-        <v>0.1624997177670754</v>
+        <v>0.1019824141023794</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H10">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I10">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J10">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N10">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q10">
-        <v>694.6615390582717</v>
+        <v>1000.518659605965</v>
       </c>
       <c r="R10">
-        <v>694.6615390582717</v>
+        <v>9004.667936453685</v>
       </c>
       <c r="S10">
-        <v>0.07798371775064228</v>
+        <v>0.05228395258268796</v>
       </c>
       <c r="T10">
-        <v>0.07798371775064228</v>
+        <v>0.05228395258268796</v>
       </c>
     </row>
   </sheetData>
